--- a/Proyecto Final/fotos/Preliminares.xlsx
+++ b/Proyecto Final/fotos/Preliminares.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="90" windowWidth="20115" windowHeight="8250"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Neón-Sodio</t>
   </si>
@@ -55,13 +55,19 @@
   </si>
   <si>
     <t>Deuterio</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>r^2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +80,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,10 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,9 +428,10 @@
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="23.140625" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +453,14 @@
       <c r="L1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>159</v>
       </c>
@@ -452,7 +474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>948</v>
       </c>
@@ -472,8 +494,19 @@
         <f>H3*E3</f>
         <v>0.58150995611599998</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>0.59740000000000004</v>
+      </c>
+      <c r="N3">
+        <f>ABS(L3-J3)*100/L3</f>
+        <v>2.6598667365249513</v>
+      </c>
+      <c r="P3">
+        <f>(0.9999856122)^2</f>
+        <v>0.99997122460700882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1334</v>
       </c>
@@ -481,12 +514,12 @@
         <v>597.46272999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -503,8 +536,12 @@
         <f>H8*E9</f>
         <v>8.9757654330000006E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N8" s="2">
+        <f>ABS(L9-J8)*100/L9</f>
+        <v>43.901466043749998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -520,8 +557,15 @@
       <c r="F9">
         <v>652.14371200000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="P9">
+        <f>(0.9986527276)^2</f>
+        <v>0.99730727034291977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -538,6 +582,18 @@
         <f>H10*E9</f>
         <v>1.1967687244E-2</v>
       </c>
+      <c r="N10" s="2">
+        <f>ABS(L9-J10)*100/L9</f>
+        <v>25.201954725</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="2">
+        <v>0.99998561220000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
